--- a/tests/data/output/一级测试用例-05001_result.xlsx
+++ b/tests/data/output/一级测试用例-05001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,60 +369,55 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>用例编号</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>用例编号</t>
+          <t>测试模块</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>测试模块</t>
+          <t>用例标题</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>用例标题</t>
+          <t>table_main</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>table_main</t>
+          <t>table_main_subA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>table_main_subA</t>
+          <t>table_main_subB</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>table_main_subB</t>
+          <t>预期测试结果</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>预期测试结果</t>
+          <t>测试用例key</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>测试用例key</t>
+          <t>实际测试结果</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>实际测试结果</t>
+          <t>是否通过</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>是否通过</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>keyValue</t>
         </is>
@@ -433,51 +428,42 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
         <v>5001</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>phone_check</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>phone_check</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>info_certification.id;
 info_certification.certification_type="ID_NAME_MOBILE";
 info_certification.result=true</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>phone_check=0</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>phone_check=0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{"user_name":"宣秀华","id_card_no":"411103197401167156","phone":"15185582525"}</t>
+          <t>{"user_name":"苗红","id_card_no":"230102198605291558","phone":"14516050048"}</t>
         </is>
       </c>
     </row>
@@ -486,51 +472,42 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
         <v>5001</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>phone_check</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>phone_check</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>info_certification.id;
 info_certification.certification_type="ID_NAME_MOBILE";
 info_certification.result=false</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>phone_check=1</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>phone_check=1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"user_name":"查浩","id_card_no":"530426193011041290","phone":"13456052625"}</t>
+          <t>{"user_name":"牧玉华","id_card_no":"522722198303284589","phone":"13529837436"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05001_result.xlsx
+++ b/tests/data/output/一级测试用例-05001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,57 +369,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>测试模块</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>用例标题</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>table_main</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>table_main_subA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>table_main_subB</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>预期测试结果</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>测试用例key</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>实际测试结果</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>是否通过</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>keyValue</t>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>key_value_main</t>
         </is>
       </c>
     </row>
@@ -428,42 +433,51 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>5001</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>phone_check</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>info_certification.id;
 info_certification.certification_type="ID_NAME_MOBILE";
 info_certification.result=true</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>phone_check=0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"苗红","id_card_no":"230102198605291558","phone":"14516050048"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{"user_name":"晋倩","id_card_no":"410825193308209611","phone":"13302635370"}</t>
         </is>
       </c>
     </row>
@@ -472,42 +486,51 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>11</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>5001</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>phone_check</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>info_certification.id;
 info_certification.certification_type="ID_NAME_MOBILE";
 info_certification.result=false</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>phone_check=1</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"牧玉华","id_card_no":"522722198303284589","phone":"13529837436"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{"user_name":"茅峰","id_card_no":"632623198010127148","phone":"18584220104"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05001_result.xlsx
+++ b/tests/data/output/一级测试用例-05001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"晋倩","id_card_no":"410825193308209611","phone":"13302635370"}</t>
+          <t>{"user_name":"房秀荣","id_card_no":"430901193808148737","phone":"15613843701"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"茅峰","id_card_no":"632623198010127148","phone":"18584220104"}</t>
+          <t>{"user_name":"广杰","id_card_no":"610126199609035638","phone":"15710990976"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05001_result.xlsx
+++ b/tests/data/output/一级测试用例-05001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"房秀荣","id_card_no":"430901193808148737","phone":"15613843701"}</t>
+          <t>{"user_name":"融秀珍","id_card_no":"620982195107250483","phone":"18798217957"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"广杰","id_card_no":"610126199609035638","phone":"15710990976"}</t>
+          <t>{"user_name":"万畅","id_card_no":"620102198401222713","phone":"15232288031"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05001_result.xlsx
+++ b/tests/data/output/一级测试用例-05001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"融秀珍","id_card_no":"620982195107250483","phone":"18798217957"}</t>
+          <t>{"user_name":"古玉梅","id_card_no":"512000199906244718","phone":"13253967331"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"万畅","id_card_no":"620102198401222713","phone":"15232288031"}</t>
+          <t>{"user_name":"管利","id_card_no":"321182198001239518","phone":"13702269102"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05001_result.xlsx
+++ b/tests/data/output/一级测试用例-05001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"古玉梅","id_card_no":"512000199906244718","phone":"13253967331"}</t>
+          <t>{"user_name":"蔺凤英","id_card_no":"51092319840808304X","phone":"13239228137"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"管利","id_card_no":"321182198001239518","phone":"13702269102"}</t>
+          <t>{"user_name":"丘洋","id_card_no":"511500198805211863","phone":"18221538329"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05001_result.xlsx
+++ b/tests/data/output/一级测试用例-05001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"蔺凤英","id_card_no":"51092319840808304X","phone":"13239228137"}</t>
+          <t>{"user_name":"谷红霞","id_card_no":"210701199205170420","phone":"18864437014"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"丘洋","id_card_no":"511500198805211863","phone":"18221538329"}</t>
+          <t>{"user_name":"丰玉珍","id_card_no":"321201198904244155","phone":"14552736906"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05001_result.xlsx
+++ b/tests/data/output/一级测试用例-05001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,60 +369,55 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>用例编号</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>用例编号</t>
+          <t>测试模块</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>测试模块</t>
+          <t>用例标题</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>用例标题</t>
+          <t>table_main</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>table_main</t>
+          <t>table_main_subA</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>table_main_subA</t>
+          <t>table_main_subB</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>table_main_subB</t>
+          <t>预期测试结果</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>预期测试结果</t>
+          <t>测试用例key</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>测试用例key</t>
+          <t>实际测试结果</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>实际测试结果</t>
+          <t>是否通过</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>是否通过</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>key_value_main</t>
         </is>
@@ -433,51 +428,44 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>5001</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>05001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>phone_check</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>phone_check</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>info_certification.id;
 info_certification.certification_type="ID_NAME_MOBILE";
 info_certification.result=true</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>phone_check=0</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>phone_check=0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{"user_name":"谷红霞","id_card_no":"210701199205170420","phone":"18864437014"}</t>
+          <t>{"user_name":"谯秀珍","id_card_no":"371702198509170136","phone":"15012369762"}</t>
         </is>
       </c>
     </row>
@@ -486,51 +474,44 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
-        <v>5001</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>05001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>phone_check</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>phone_check</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>info_certification.id;
 info_certification.certification_type="ID_NAME_MOBILE";
 info_certification.result=false</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>phone_check=1</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>phone_check=1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"user_name":"丰玉珍","id_card_no":"321201198904244155","phone":"14552736906"}</t>
+          <t>{"user_name":"苍楠","id_card_no":"530801195511302753","phone":"13071189411"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05001_result.xlsx
+++ b/tests/data/output/一级测试用例-05001_result.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,55 +369,60 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>用例编号</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>测试模块</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>用例标题</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>table_main</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>table_main_subA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>table_main_subB</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>预期测试结果</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>测试用例key</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>实际测试结果</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>是否通过</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>key_value_main</t>
         </is>
@@ -428,44 +433,51 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>05001</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>5001</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>phone_check</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>info_certification.id;
 info_certification.certification_type="ID_NAME_MOBILE";
 info_certification.result=true</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
         <is>
           <t>phone_check=0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{"user_name":"谯秀珍","id_card_no":"371702198509170136","phone":"15012369762"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{"user_name":"诸荣","id_card_no":"522632196208296619","phone":"13946486447"}</t>
         </is>
       </c>
     </row>
@@ -474,44 +486,51 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>11</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>05001</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>5001</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>phone_check</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>info_certification.id;
 info_certification.certification_type="ID_NAME_MOBILE";
 info_certification.result=false</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>phone_check=1</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>user_name;
 id_card_no;
 phone</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{"user_name":"苍楠","id_card_no":"530801195511302753","phone":"13071189411"}</t>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{"user_name":"边鑫","id_card_no":"150902197604200756","phone":"15691867699"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05001_result.xlsx
+++ b/tests/data/output/一级测试用例-05001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"诸荣","id_card_no":"522632196208296619","phone":"13946486447"}</t>
+          <t>{"user_name":"禄欢","id_card_no":"130201198411293008","phone":"13571604558"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"边鑫","id_card_no":"150902197604200756","phone":"15691867699"}</t>
+          <t>{"user_name":"曹秀珍","id_card_no":"411729197405093488","phone":"15843494207"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-05001_result.xlsx
+++ b/tests/data/output/一级测试用例-05001_result.xlsx
@@ -1,37 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>测试模块</t>
+  </si>
+  <si>
+    <t>用例标题</t>
+  </si>
+  <si>
+    <t>table_main</t>
+  </si>
+  <si>
+    <t>table_main_subA</t>
+  </si>
+  <si>
+    <t>table_main_subB</t>
+  </si>
+  <si>
+    <t>预期测试结果</t>
+  </si>
+  <si>
+    <t>测试用例key</t>
+  </si>
+  <si>
+    <t>实际测试结果</t>
+  </si>
+  <si>
+    <t>是否通过</t>
+  </si>
+  <si>
+    <t>key_value_main</t>
+  </si>
+  <si>
+    <t>phone_check</t>
+  </si>
+  <si>
+    <t>info_certification.id;
+info_certification.certification_type="ID_NAME_MOBILE";
+info_certification.result=true</t>
+  </si>
+  <si>
+    <t>info_certification.id;
+info_certification.certification_type="ID_NAME_MOBILE";
+info_certification.result=false</t>
+  </si>
+  <si>
+    <t>phone_check=0</t>
+  </si>
+  <si>
+    <t>phone_check=1</t>
+  </si>
+  <si>
+    <t>user_name;
+id_card_no;
+phone</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>{"user_name":"于莹","id_card_no":"34010019670427970X","phone":"18539360076"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"曾璐","id_card_no":"140202195610239279","phone":"13268511482"}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,26 +123,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -353,188 +439,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>用例编号</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>测试模块</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>用例标题</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>table_main</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>table_main_subA</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>table_main_subB</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>预期测试结果</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>测试用例key</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>实际测试结果</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>是否通过</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>key_value_main</t>
-        </is>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:13">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>5001</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>phone_check</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>info_certification.id;
-info_certification.certification_type="ID_NAME_MOBILE";
-info_certification.result=true</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>phone_check=0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K2" t="n">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>{"user_name":"禄欢","id_card_no":"130201198411293008","phone":"13571604558"}</t>
-        </is>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>5001</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>phone_check</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>info_certification.id;
-info_certification.certification_type="ID_NAME_MOBILE";
-info_certification.result=false</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>phone_check=1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>user_name;
-id_card_no;
-phone</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>{"user_name":"曹秀珍","id_card_no":"411729197405093488","phone":"15843494207"}</t>
-        </is>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/data/output/一级测试用例-05001_result.xlsx
+++ b/tests/data/output/一级测试用例-05001_result.xlsx
@@ -79,10 +79,10 @@
     <t>true</t>
   </si>
   <si>
-    <t>{"user_name":"于莹","id_card_no":"34010019670427970X","phone":"18539360076"}</t>
-  </si>
-  <si>
-    <t>{"user_name":"曾璐","id_card_no":"140202195610239279","phone":"13268511482"}</t>
+    <t>{"user_name":"皇荣","id_card_no":"150524197405203969","phone":"13589936152"}</t>
+  </si>
+  <si>
+    <t>{"user_name":"郗敏","id_card_no":"150726193911082296","phone":"13758617341"}</t>
   </si>
 </sst>
 </file>
